--- a/state-chart/仕様.xlsx
+++ b/state-chart/仕様.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="18431"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet3" sheetId="3" r:id="rId1"/>
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
@@ -49,13 +49,168 @@
   </si>
   <si>
     <t>https://dobon.net/vb/dotnet/graphics/interpolationmode.html</t>
+  </si>
+  <si>
+    <t>外枠</t>
+    <rPh sb="0" eb="2">
+      <t>ソトワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>62 x 53</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート表示枠</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>58x9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテンツ表示枠</t>
+    <rPh sb="5" eb="7">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="7" eb="8">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>58x20</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランチ表示枠</t>
+    <rPh sb="4" eb="6">
+      <t>ヒョウジ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ワク</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>58x9</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>237,125,49</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外枠塗色</t>
+    <rPh sb="0" eb="2">
+      <t>ソトワク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>ヌリ</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>外枠線色</t>
+    <rPh sb="0" eb="2">
+      <t>ソトワク</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="3" eb="4">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート枠線</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>0,0,0</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ステート枠線塗</t>
+    <rPh sb="4" eb="5">
+      <t>ワク</t>
+    </rPh>
+    <rPh sb="5" eb="6">
+      <t>セン</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>ヌリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテンツ塗色</t>
+    <rPh sb="5" eb="6">
+      <t>ヌリ</t>
+    </rPh>
+    <rPh sb="6" eb="7">
+      <t>イロ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>コンテンツ線</t>
+    <rPh sb="5" eb="6">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランチ線</t>
+    <rPh sb="4" eb="5">
+      <t>セン</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>ブランチ塗</t>
+    <rPh sb="4" eb="5">
+      <t>ヌリ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>1mm =  2.84 pt</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>点の直径</t>
+    <rPh sb="0" eb="1">
+      <t>テン</t>
+    </rPh>
+    <rPh sb="2" eb="4">
+      <t>チョッケイ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -75,6 +230,13 @@
       <name val="Yu Gothic"/>
       <family val="3"/>
       <charset val="128"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -106,16 +268,17 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="49" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -803,6 +966,50 @@
         </a:p>
       </xdr:txBody>
     </xdr:sp>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>10</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>161648</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>170923</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="16" name="図 15">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3001FB3C-CA90-40CE-8C87-2878A864D8B9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="8743950" y="2381250"/>
+          <a:ext cx="2219048" cy="4219048"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -1120,69 +1327,179 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998A68A7-4F47-4AF7-B467-2753A20D871A}">
-  <dimension ref="C7:H20"/>
+  <dimension ref="C7:J26"/>
   <sheetViews>
-    <sheetView topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="H9" sqref="H9"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="1" width="9.125" customWidth="1"/>
+    <col min="8" max="8" width="17.875" customWidth="1"/>
+    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="7" spans="8:8">
+    <row r="7" spans="8:10">
       <c r="H7" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="8:8">
+    <row r="8" spans="8:10">
       <c r="H8" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="20" spans="3:3">
+    <row r="11" spans="8:10">
+      <c r="J11" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="12" spans="8:10">
+      <c r="H12" t="s">
+        <v>7</v>
+      </c>
+      <c r="I12" t="s">
+        <v>8</v>
+      </c>
+      <c r="J12" s="5"/>
+    </row>
+    <row r="13" spans="8:10">
+      <c r="H13" t="s">
+        <v>9</v>
+      </c>
+      <c r="I13" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="8:10">
+      <c r="H14" t="s">
+        <v>11</v>
+      </c>
+      <c r="I14" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="8:10">
+      <c r="H15" t="s">
+        <v>13</v>
+      </c>
+      <c r="I15" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="17" spans="3:9">
+      <c r="H17" t="s">
+        <v>17</v>
+      </c>
+      <c r="I17" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="18" spans="3:9">
+      <c r="H18" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="5">
+        <v>175171171</v>
+      </c>
+    </row>
+    <row r="19" spans="3:9">
+      <c r="H19" t="s">
+        <v>18</v>
+      </c>
+      <c r="I19" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="3:9">
       <c r="C20" t="s">
         <v>0</v>
+      </c>
+      <c r="H20" t="s">
+        <v>20</v>
+      </c>
+      <c r="I20" s="5">
+        <v>175171171</v>
+      </c>
+    </row>
+    <row r="21" spans="3:9">
+      <c r="H21" t="s">
+        <v>22</v>
+      </c>
+      <c r="I21" s="5">
+        <v>65113156</v>
+      </c>
+    </row>
+    <row r="22" spans="3:9">
+      <c r="H22" t="s">
+        <v>21</v>
+      </c>
+      <c r="I22" s="5">
+        <v>91155213</v>
+      </c>
+    </row>
+    <row r="23" spans="3:9">
+      <c r="H23" t="s">
+        <v>23</v>
+      </c>
+      <c r="I23" s="5">
+        <v>65113156</v>
+      </c>
+    </row>
+    <row r="24" spans="3:9">
+      <c r="H24" t="s">
+        <v>24</v>
+      </c>
+      <c r="I24" s="5">
+        <v>255255255</v>
+      </c>
+    </row>
+    <row r="26" spans="3:9">
+      <c r="H26" t="s">
+        <v>26</v>
+      </c>
+      <c r="I26" s="5">
+        <v>4</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31E7DC37-ED13-4F04-8EE9-1528DD110794}">
-  <dimension ref="A1:I4"/>
+  <dimension ref="A1:B4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
+  <cols>
+    <col min="1" max="16384" width="9" style="2"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:9">
-      <c r="A1" t="s">
+    <row r="1" spans="1:2">
+      <c r="A1" s="2" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:9" ht="22.5">
-      <c r="B2" s="2" t="s">
+    <row r="2" spans="1:2" ht="22.5">
+      <c r="B2" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="3"/>
-      <c r="E2" s="3"/>
-      <c r="F2" s="3"/>
-      <c r="G2" s="3"/>
-      <c r="H2" s="3"/>
-      <c r="I2" s="3"/>
-    </row>
-    <row r="3" spans="1:9">
-      <c r="A3" t="s">
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" s="2" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:9" ht="22.5">
+    <row r="4" spans="1:2" ht="22.5">
       <c r="B4" s="4" t="s">
         <v>5</v>
       </c>

--- a/state-chart/仕様.xlsx
+++ b/state-chart/仕様.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="30">
   <si>
     <t>背景</t>
     <rPh sb="0" eb="2">
@@ -203,6 +203,18 @@
     <rPh sb="2" eb="4">
       <t>チョッケイ</t>
     </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Fill</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>Line</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>65,65,65</t>
     <phoneticPr fontId="2"/>
   </si>
 </sst>
@@ -210,7 +222,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -247,6 +259,13 @@
       <family val="3"/>
       <charset val="128"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Yu Gothic"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -268,7 +287,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -278,7 +297,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" indent="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
@@ -1329,137 +1349,153 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{998A68A7-4F47-4AF7-B467-2753A20D871A}">
   <dimension ref="C7:J26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18.75"/>
   <cols>
-    <col min="1" max="1" width="9.125" customWidth="1"/>
-    <col min="8" max="8" width="17.875" customWidth="1"/>
-    <col min="9" max="9" width="11.625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.125" style="5" customWidth="1"/>
+    <col min="2" max="4" width="9" style="5"/>
+    <col min="5" max="5" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="9" style="5"/>
+    <col min="8" max="8" width="17.875" style="5" customWidth="1"/>
+    <col min="9" max="9" width="11.625" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="16384" width="9" style="5"/>
   </cols>
   <sheetData>
     <row r="7" spans="8:10">
-      <c r="H7" t="s">
+      <c r="H7" s="5" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="8" spans="8:10">
-      <c r="H8" t="s">
+      <c r="H8" s="5" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="11" spans="8:10">
-      <c r="J11" t="s">
+      <c r="J11" s="5" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="12" spans="8:10">
-      <c r="H12" t="s">
+      <c r="H12" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="I12" t="s">
+      <c r="I12" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="J12" s="5"/>
+      <c r="J12" s="6"/>
     </row>
     <row r="13" spans="8:10">
-      <c r="H13" t="s">
+      <c r="H13" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="I13" t="s">
+      <c r="I13" s="5" t="s">
         <v>10</v>
       </c>
     </row>
     <row r="14" spans="8:10">
-      <c r="H14" t="s">
+      <c r="H14" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="I14" t="s">
+      <c r="I14" s="5" t="s">
         <v>12</v>
       </c>
     </row>
     <row r="15" spans="8:10">
-      <c r="H15" t="s">
+      <c r="H15" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="I15" t="s">
+      <c r="I15" s="5" t="s">
         <v>14</v>
       </c>
     </row>
     <row r="17" spans="3:9">
-      <c r="H17" t="s">
+      <c r="H17" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="I17" t="s">
+      <c r="I17" s="5" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="18" spans="3:9">
-      <c r="H18" t="s">
+      <c r="H18" s="5" t="s">
         <v>16</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="6">
         <v>175171171</v>
       </c>
     </row>
     <row r="19" spans="3:9">
-      <c r="H19" t="s">
+      <c r="D19" s="5" t="s">
+        <v>27</v>
+      </c>
+      <c r="E19" s="5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H19" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="I19" t="s">
+      <c r="I19" s="5" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="20" spans="3:9">
-      <c r="C20" t="s">
+      <c r="C20" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H20" t="s">
+      <c r="D20" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E20" s="6">
+        <v>112112112</v>
+      </c>
+      <c r="H20" s="5" t="s">
         <v>20</v>
       </c>
-      <c r="I20" s="5">
+      <c r="I20" s="6">
         <v>175171171</v>
       </c>
     </row>
     <row r="21" spans="3:9">
-      <c r="H21" t="s">
+      <c r="H21" s="5" t="s">
         <v>22</v>
       </c>
-      <c r="I21" s="5">
+      <c r="I21" s="6">
         <v>65113156</v>
       </c>
     </row>
     <row r="22" spans="3:9">
-      <c r="H22" t="s">
+      <c r="H22" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="I22" s="5">
+      <c r="I22" s="6">
         <v>91155213</v>
       </c>
     </row>
     <row r="23" spans="3:9">
-      <c r="H23" t="s">
+      <c r="H23" s="5" t="s">
         <v>23</v>
       </c>
-      <c r="I23" s="5">
+      <c r="I23" s="6">
         <v>65113156</v>
       </c>
     </row>
     <row r="24" spans="3:9">
-      <c r="H24" t="s">
+      <c r="H24" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="I24" s="5">
+      <c r="I24" s="6">
         <v>255255255</v>
       </c>
     </row>
     <row r="26" spans="3:9">
-      <c r="H26" t="s">
+      <c r="H26" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="I26" s="5">
+      <c r="I26" s="6">
         <v>4</v>
       </c>
     </row>
